--- a/BrickDumpling规划/整体规划-美术.xlsx
+++ b/BrickDumpling规划/整体规划-美术.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="制作规划" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>类型</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>砖块生成效果</t>
+  </si>
+  <si>
+    <t>球反弹特效</t>
+  </si>
+  <si>
+    <t>获得能量特效</t>
+  </si>
+  <si>
+    <t>能量爆发特效</t>
+  </si>
+  <si>
+    <t>每个能量球效果</t>
   </si>
 </sst>
 </file>
@@ -85,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -106,15 +118,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,9 +142,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,7 +173,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,14 +203,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -184,28 +211,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -213,38 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,181 +277,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +462,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,11 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,21 +543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -523,21 +550,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1219,6 +1231,26 @@
       </c>
       <c r="B13" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1299,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>

--- a/BrickDumpling规划/整体规划-美术.xlsx
+++ b/BrickDumpling规划/整体规划-美术.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>类型</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>基础界面</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>新手引导</t>
@@ -99,8 +102,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -115,6 +118,106 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,25 +229,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,111 +259,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,43 +280,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,133 +436,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,11 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +504,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -500,6 +524,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,37 +554,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,140 +589,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1112,7 +1123,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1177,12 +1188,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1190,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1198,7 +1213,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1206,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1214,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1222,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1230,27 +1245,27 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
